--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Nr</t>
   </si>
@@ -89,12 +92,81 @@
   <si>
     <t>p.45</t>
   </si>
+  <si>
+    <t>Gabriel Garcia Marquez</t>
+  </si>
+  <si>
+    <t>One Hundred Years of Solitude</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Pride and Prejudice</t>
+  </si>
+  <si>
+    <t>Virginia Wolf</t>
+  </si>
+  <si>
+    <t>Mrs.Dalloway</t>
+  </si>
+  <si>
+    <t>Fyodor Dostoevski</t>
+  </si>
+  <si>
+    <t>Crime and Punishment</t>
+  </si>
+  <si>
+    <t>Toni Morrison</t>
+  </si>
+  <si>
+    <t>Beloved</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Albert Camus</t>
+  </si>
+  <si>
+    <t>The Stranger</t>
+  </si>
+  <si>
+    <t>p.22</t>
+  </si>
+  <si>
+    <t>p.87</t>
+  </si>
+  <si>
+    <t>p.123</t>
+  </si>
+  <si>
+    <t>p.342</t>
+  </si>
+  <si>
+    <t>p.234</t>
+  </si>
+  <si>
+    <t>p.358</t>
+  </si>
+  <si>
+    <t>p.478</t>
+  </si>
+  <si>
+    <t>p.20</t>
+  </si>
+  <si>
+    <t>p.48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +190,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,10 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,17 +517,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,7 +599,178 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40949</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37962</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>36965</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>38050</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>37273</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>34688</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>39598</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41498</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -206,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,15 +214,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,7 +536,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,240 +548,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>34688</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>39598</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>41498</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>40949</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>37962</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>42203</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>40100</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>36965</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>38050</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>37273</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>34688</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>39598</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>41498</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
